--- a/biology/Histoire de la zoologie et de la botanique/David_B._Weishampel/David_B._Weishampel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_B._Weishampel/David_B._Weishampel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur David B. Weishampel (né le 16 novembre 1952) est un paléontologue américain au Center for Functional Anatomy and Evolution de l'Université Johns-Hopkins, dans le Maryland (États-Unis). Weishampel a obtenu son doctorat de géologie à l'Université de Pennsylvanie en 1981. Ses recherches portent sur la systématique des dinosaures, les dinosaures européens du Crétacé supérieur, la mécanique de la mâchoire chez les herbivores, la cladistique, l'hétérochronie et l'histoire de l'évolution biologique.
 La publication de Weishampel la plus célèbre est : The Dinosauria, University of California Press; 2nd edition (December 1, 2004). Il a été consultant pour le film Jurassic Park et est un ami de Steven Spielberg. Il a reçu un Oscar scientifique ou technique.
@@ -512,7 +524,9 @@
           <t>Publications sélectionnées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Weishampel, D. B., Dodson, P., and Osmólska, H. (eds.). 2004. The Dinosauria. 2nd edition. Univ. California Press, Berkeley. 833 pp.
 Weishampel, D. B. &amp; White, N. (eds.). 2003. The Dinosaur Papers: 1676-1906. Smithsonian Institution Press, Washington, D. C. 524 pp.
